--- a/t/test_out.experimentset.bad.xlsx
+++ b/t/test_out.experimentset.bad.xlsx
@@ -31,20 +31,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 attribute notes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Not in enum list: Chromatin Accessibility, DNA Methylation, Histone H3K4me1, Histone H3K4me3, Histone H3K9me3, Histone H3K9ac, Histone H3K27me3, Histone H3K36me3, Ribo Minus RNA sequencing.
+          <t xml:space="preserve">schema: pass
 </t>
         </r>
       </text>
@@ -58,7 +45,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">schema: pass
+          <t>1 attribute notes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[ATTRIBUTE]:EXPERIMENT_TYPE: Not in enum list: Chromatin Accessibility, DNA Methylation, Histone H3K27ac, Histone H3K4me1, Histone H3K4me3, Histone H3K9me3, Histone H3K9ac, Histone H3K27me3, Histone H3K36me3, Ribo Minus RNA sequencing.
 </t>
         </r>
       </text>
@@ -72,20 +72,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 attribute notes</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Not in enum list: Chromatin Accessibility, DNA Methylation, Histone H3K4me1, Histone H3K4me3, Histone H3K9me3, Histone H3K9ac, Histone H3K27me3, Histone H3K36me3, Ribo Minus RNA sequencing.
+          <t xml:space="preserve">schema: pass
 </t>
         </r>
       </text>
@@ -178,7 +165,7 @@
     <t>C15410194</t>
   </si>
   <si>
-    <t>Histone H3K4me1</t>
+    <t>Histone</t>
   </si>
   <si>
     <t>A1863-001P</t>
@@ -238,13 +225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,7 +652,7 @@
       <c r="E2" s="2">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="2">
@@ -712,7 +699,7 @@
       <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="2">
@@ -759,7 +746,7 @@
       <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2">
@@ -864,18 +851,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
